--- a/battleworld/Excel/WeaponTrigger_武器触发器表.xlsx
+++ b/battleworld/Excel/WeaponTrigger_武器触发器表.xlsx
@@ -1,74 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18878A8B-17ED-4C8A-9DA1-3603733FF564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>weaponId</t>
+  </si>
+  <si>
+    <t>triggerGuid</t>
+  </si>
+  <si>
+    <t>worldUIGuid</t>
+  </si>
+  <si>
+    <t>sellValue</t>
+  </si>
+  <si>
+    <t>唯一id</t>
+  </si>
+  <si>
+    <t>武器名称(便于查看)</t>
+  </si>
+  <si>
+    <t>武器表id</t>
+  </si>
+  <si>
+    <t>触发器guid</t>
+  </si>
+  <si>
+    <t>世界UIguid</t>
+  </si>
+  <si>
+    <t>售价</t>
+  </si>
+  <si>
+    <t>近战单手剑</t>
+  </si>
+  <si>
+    <t>17BEFE91</t>
+  </si>
+  <si>
+    <t>307BEDEB</t>
+  </si>
+  <si>
+    <t>法杖</t>
+  </si>
+  <si>
+    <t>1F58D9F4</t>
+  </si>
+  <si>
+    <t>0692B870</t>
+  </si>
+  <si>
+    <t>双手剑</t>
+  </si>
+  <si>
+    <t>2E8BD119</t>
+  </si>
+  <si>
+    <t>1EA81627</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
@@ -95,24 +162,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,91 +487,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="14"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="F1" s="2" t="str">
-        <v>int</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>name1</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>weaponId</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>triggerGuid</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>worldUIGuid</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>sellValue</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一id</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>武器名称(便于查看)</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>武器表id</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>触发器guid</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>世界UIguid</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <v>售价</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -513,70 +579,70 @@
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>近战单手剑</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <v>17BEFE91</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>307BEDEB</v>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>法杖</v>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <v>1F58D9F4</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v>0692B870</v>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>双手剑</v>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <v>2E8BD119</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v>1EA81627</v>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -585,7 +651,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -594,7 +660,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -603,7 +669,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -612,7 +678,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -621,7 +687,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -630,7 +696,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -639,7 +705,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -648,7 +714,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -657,7 +723,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -666,7 +732,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -675,7 +741,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -684,7 +750,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -693,7 +759,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -702,7 +768,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -711,7 +777,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -720,7 +786,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -729,7 +795,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -738,7 +804,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -747,7 +813,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -756,7 +822,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -765,7 +831,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -774,7 +840,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -783,7 +849,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -792,7 +858,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -801,7 +867,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -810,7 +876,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -819,7 +885,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -828,7 +894,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -837,7 +903,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -846,7 +912,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -855,7 +921,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -864,7 +930,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -873,7 +939,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -882,7 +948,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -891,7 +957,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -900,7 +966,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -909,7 +975,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -918,7 +984,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -927,7 +993,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -936,7 +1002,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -945,7 +1011,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -954,7 +1020,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -963,7 +1029,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -972,7 +1038,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -981,7 +1047,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -990,7 +1056,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -999,7 +1065,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1008,7 +1074,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1017,7 +1083,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1026,7 +1092,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1035,7 +1101,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1044,7 +1110,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1053,7 +1119,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1062,7 +1128,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1071,7 +1137,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1080,7 +1146,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1089,7 +1155,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1098,7 +1164,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1107,7 +1173,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1116,7 +1182,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1125,7 +1191,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1134,7 +1200,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1143,7 +1209,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1152,7 +1218,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1161,7 +1227,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1170,7 +1236,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1179,7 +1245,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1188,7 +1254,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1197,7 +1263,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1206,7 +1272,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1215,7 +1281,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1224,7 +1290,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1233,7 +1299,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1242,7 +1308,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1251,7 +1317,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1260,7 +1326,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1269,7 +1335,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1278,7 +1344,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1287,7 +1353,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1296,7 +1362,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1305,7 +1371,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1314,7 +1380,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1323,7 +1389,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1332,7 +1398,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1341,7 +1407,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1350,7 +1416,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1359,7 +1425,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1368,7 +1434,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1377,7 +1443,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1386,7 +1452,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1395,7 +1461,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1404,7 +1470,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1413,7 +1479,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1422,7 +1488,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1431,7 +1497,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1440,7 +1506,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1449,7 +1515,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1458,7 +1524,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1467,7 +1533,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1476,7 +1542,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1485,7 +1551,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1494,7 +1560,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1503,7 +1569,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1512,7 +1578,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1521,7 +1587,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1530,7 +1596,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1539,7 +1605,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1548,7 +1614,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1557,7 +1623,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1566,7 +1632,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1575,7 +1641,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1584,7 +1650,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1593,7 +1659,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1602,7 +1668,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1611,7 +1677,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1620,7 +1686,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1629,7 +1695,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1638,7 +1704,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1647,7 +1713,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1656,7 +1722,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1665,7 +1731,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1674,7 +1740,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1683,7 +1749,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1692,7 +1758,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1701,7 +1767,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1710,7 +1776,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1719,7 +1785,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1728,7 +1794,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1737,7 +1803,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1746,7 +1812,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1755,7 +1821,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1764,7 +1830,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1773,7 +1839,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1782,7 +1848,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1791,7 +1857,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1800,7 +1866,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1809,7 +1875,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1818,7 +1884,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1827,7 +1893,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1836,7 +1902,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1845,7 +1911,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1854,7 +1920,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1863,7 +1929,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1872,7 +1938,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1881,7 +1947,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1890,7 +1956,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1899,7 +1965,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1908,7 +1974,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1917,7 +1983,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1926,7 +1992,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1935,7 +2001,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1944,7 +2010,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1953,7 +2019,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1962,7 +2028,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1971,7 +2037,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1980,7 +2046,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1989,7 +2055,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1998,7 +2064,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2007,7 +2073,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2016,7 +2082,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2025,7 +2091,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2034,7 +2100,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2043,7 +2109,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2052,7 +2118,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2061,7 +2127,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2070,7 +2136,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2079,7 +2145,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2088,7 +2154,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2097,7 +2163,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2106,7 +2172,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2115,7 +2181,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2124,7 +2190,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2133,7 +2199,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2142,7 +2208,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2151,7 +2217,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2160,7 +2226,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2169,7 +2235,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2178,7 +2244,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2187,7 +2253,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2196,7 +2262,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2205,7 +2271,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2214,7 +2280,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2223,7 +2289,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2232,7 +2298,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2241,7 +2307,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2250,7 +2316,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2259,7 +2325,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2268,7 +2334,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2277,7 +2343,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2286,7 +2352,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2295,7 +2361,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2304,7 +2370,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2313,11 +2379,12 @@
       <c r="F200" s="2"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F201" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/battleworld/Excel/WeaponTrigger_武器触发器表.xlsx
+++ b/battleworld/Excel/WeaponTrigger_武器触发器表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18878A8B-17ED-4C8A-9DA1-3603733FF564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67DAEA-36D3-47AE-A8B0-121A413F19EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="2">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -617,7 +617,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
